--- a/biology/Biologie cellulaire et moléculaire/Peptidylprolyl_isomérase/Peptidylprolyl_isomérase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Peptidylprolyl_isomérase/Peptidylprolyl_isomérase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Peptidylprolyl_isom%C3%A9rase</t>
+          <t>Peptidylprolyl_isomérase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les peptidyl prolyl isomérases (ou prolyl isomérases ou PPIase) sont une famille de protéines de type immunophilines.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peptidylprolyl_isom%C3%A9rase</t>
+          <t>Peptidylprolyl_isomérase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles permettent la transformation des protides de la forme trans à la forme cis[1].
-Elles sont impliquées dans diverses maladies cardiaques[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles permettent la transformation des protides de la forme trans à la forme cis.
+Elles sont impliquées dans diverses maladies cardiaques.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Peptidylprolyl_isom%C3%A9rase</t>
+          <t>Peptidylprolyl_isomérase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles sont ubiquitaires dans le monde vivant, chaque organisme synthétisant plusieurs protéines de ce type[1]. 
-Elles sont réparties en trois sous-familles[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont ubiquitaires dans le monde vivant, chaque organisme synthétisant plusieurs protéines de ce type. 
+Elles sont réparties en trois sous-familles : 
 les cyclophilines, dont la cyclophiline A, B, C, D, J et 40.
 les « FK-506-binding proteins », dont le FKBP12, le FKBP12.6, le FKBP6
 et les parvulines dont le Pin1.
